--- a/docs/StructureDefinition-LTCQuestionnaireResponseADL.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaireResponseADL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCQuestionnaireResponseADL.xlsx
+++ b/docs/StructureDefinition-LTCQuestionnaireResponseADL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8378,10 +8378,10 @@
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>20</v>
